--- a/biology/Botanique/Pois_vivace/Pois_vivace.xlsx
+++ b/biology/Botanique/Pois_vivace/Pois_vivace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus latifolius
 Le Pois vivace (Lathyrus latifolius) est une espèce de plante herbacée de la famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique).
@@ -514,12 +526,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace vigoureuse, grimpante grâce à des vrilles, elle peut atteindre une hauteur de deux à trois mètres. Les tiges sont ailées. Les feuilles sont formées de deux paires de folioles. Les folioles sont de largeur très variables (3 à 25 mm)[1]. Les vrilles sont peu nombreuses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace vigoureuse, grimpante grâce à des vrilles, elle peut atteindre une hauteur de deux à trois mètres. Les tiges sont ailées. Les feuilles sont formées de deux paires de folioles. Les folioles sont de largeur très variables (3 à 25 mm). Les vrilles sont peu nombreuses.
 Les fleurs papilionacées assez grandes, de couleur rose pourpre, sont groupées en grappes axillaires par 10 à 15 fleurs.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pois_vivace</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pois_vivace</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose
 Période de floraison : juillet-septembre
 Inflorescence : racème simple
@@ -536,37 +585,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pois_vivace</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pois_vivace</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce spontanée en Afrique du Nord (Algérie, Maroc, Tunisie) et en Europe (France, Espagne, Portugal, Italie, Suisse, Autriche, Hongrie, Ukraine, Balkans, Grèce). C'est une plante de mi-ombre ou de lumière qui s'acclimate facilement dans les friches et les prairies[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -588,12 +606,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est cultivée de nos jours dans tous les pays tempérés et souvent naturalisée.
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce spontanée en Afrique du Nord (Algérie, Maroc, Tunisie) et en Europe (France, Espagne, Portugal, Italie, Suisse, Autriche, Hongrie, Ukraine, Balkans, Grèce). C'est une plante de mi-ombre ou de lumière qui s'acclimate facilement dans les friches et les prairies.
 </t>
         </is>
       </c>
@@ -619,10 +639,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est cultivée de nos jours dans tous les pays tempérés et souvent naturalisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pois_vivace</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pois_vivace</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus purpureus Gilib.
 Sur les autres projets Wikimedia :
